--- a/data/case1/15/V1_3.xlsx
+++ b/data/case1/15/V1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999034832499</v>
+        <v>0.99999998820958025</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99458887943833951</v>
+        <v>0.99473536047671907</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97491129860686243</v>
+        <v>0.97267663198450971</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96625387797591067</v>
+        <v>0.96228009345247245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95804154773416006</v>
+        <v>0.95227538980656767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93950741962903828</v>
+        <v>0.92779046805842436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93942676061165065</v>
+        <v>0.92639017159872794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93528809270237212</v>
+        <v>0.92571233365305694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93445206303309414</v>
+        <v>0.92824024997586485</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93455924049366801</v>
+        <v>0.93176091471006162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9343303311323391</v>
+        <v>0.93247374157513396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93415364666499778</v>
+        <v>0.93116045181563911</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92286765540018378</v>
+        <v>0.92613098938267657</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91870058042897085</v>
+        <v>0.92448299492901742</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.91610923709187775</v>
+        <v>0.91776192070965457</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.91360282670450021</v>
+        <v>0.9105760265671945</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90989498863723473</v>
+        <v>0.90686827019896166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90878609088217033</v>
+        <v>0.90575939275534445</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99207102619409815</v>
+        <v>0.99368223474363382</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97538864349656651</v>
+        <v>0.98656545449798849</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97399015785225163</v>
+        <v>0.98516701411980656</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9727256459457051</v>
+        <v>0.98390251718543975</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9678758802051769</v>
+        <v>0.96564111267420383</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95485435935684826</v>
+        <v>0.95261948142355646</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94839726545955849</v>
+        <v>0.94616237828032035</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.937232559171711</v>
+        <v>0.92413363778223356</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93431114994080966</v>
+        <v>0.91928525255916194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9213028067191773</v>
+        <v>0.89780640067994322</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91232964814565287</v>
+        <v>0.88253308995658297</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.90907588582612797</v>
+        <v>0.8759623912966773</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.90142275082550016</v>
+        <v>0.86830861112804991</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.89974348453421293</v>
+        <v>0.86662935718447653</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.89922348868449675</v>
+        <v>0.86610937350690631</v>
       </c>
     </row>
   </sheetData>
